--- a/data/long_bre/P22-Urba-long_bre.xlsx
+++ b/data/long_bre/P22-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21,83%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 6,6</t>
+          <t>-6,86; 7,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 10,85</t>
+          <t>-0,23; 10,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 26,93</t>
+          <t>-5,99; 7,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 51,22</t>
+          <t>-20,81; 29,47</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 46,94</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-19,7; 34,17</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,08</t>
+          <t>-10,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,33%</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,57%</t>
+          <t>-4,07%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-20,06%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-3,86%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 6,06</t>
+          <t>-8,69; 5,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,69; -2,83</t>
+          <t>-16,19; -3,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 15,87</t>
+          <t>-9,23; 8,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,03; -5,67</t>
+          <t>-19,36; 15,12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-29,64; -8,06</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-20,0; 23,65</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19,66%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,58</t>
+          <t>-4,84; 7,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 10,01</t>
+          <t>-0,68; 9,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 23,63</t>
+          <t>-12,01; 8,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 47,98</t>
+          <t>-13,81; 27,48</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 49,09</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-30,47; 30,67</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 7,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 6,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 30,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 26,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,33%</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,91%</t>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,33%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 6,19</t>
+          <t>-6,51; 8,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 2,63</t>
+          <t>-5,57; 7,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 18,04</t>
+          <t>-4,58; 11,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 6,31</t>
+          <t>-20,75; 36,62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-17,62; 29,79</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-13,9; 49,2</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>-8,95%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-10,73%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-13,82%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 10,44</t>
+          <t>-11,97; 4,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 10,34</t>
+          <t>-12,11; 2,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 41,04</t>
+          <t>-15,28; 2,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 44,63</t>
+          <t>-25,97; 11,21</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-24,72; 5,46</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-32,56; 6,07</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 19,51</t>
+          <t>-6,81; 9,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 16,08</t>
+          <t>-3,49; 9,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 131,62</t>
+          <t>-5,18; 10,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 61,46</t>
+          <t>-18,48; 36,34</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-11,05; 42,39</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-14,63; 41,17</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-24,1%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 6,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 10,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 23,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 32,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,27%</t>
+          <t>40,35%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>13,65%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-20,58%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 17,77</t>
+          <t>-3,83; 21,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 10,91</t>
+          <t>-9,66; 16,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 62,03</t>
+          <t>-21,18; 9,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-40,5; 58,43</t>
+          <t>-13,86; 164,01</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-23,59; 63,48</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-59,54; 58,75</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-10,29</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>-26,0%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-6,86%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-2,98%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 6,04</t>
+          <t>-25,94; 4,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 7,5</t>
+          <t>-16,35; 10,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 24,61</t>
+          <t>-23,83; 17,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 29,88</t>
+          <t>-52,5; 14,89</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-32,65; 30,97</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-39,65; 53,04</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,81%</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-14,41%</t>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-6,07%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 2,58</t>
+          <t>-16,2; 16,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -2,07</t>
+          <t>-14,56; 9,6</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 6,93</t>
+          <t>-8,79; 22,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-23,44; -4,58</t>
+          <t>-32,31; 58,66</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-43,26; 49,47</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-25,24; 123,64</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1486,359 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 6,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 7,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 21,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 33,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 6,46</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 7,5</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 6,42</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-10,8; 25,97</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 30,42</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-13,18; 27,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-3,43</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-7,08</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-8,42%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-15,03%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-7,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-8,23; 1,47</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-11,45; -2,21</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; 3,13</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-18,63; 4,93</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-22,87; -5,07</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-19,62; 7,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 6,43</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 7,48</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 7,76</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-10,47; 21,72</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 32,57</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-13,66; 27,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
